--- a/src/plugins/Vn4ThemeBuilder/i18n/trans.xlsx
+++ b/src/plugins/Vn4ThemeBuilder/i18n/trans.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
   <si>
     <t>Key</t>
   </si>
@@ -69,226 +69,241 @@
     <t>Product Data</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 138</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 139</t>
   </si>
   <si>
     <t>Product type</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 144</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 145</t>
   </si>
   <si>
     <t>Simple Product</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 146</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 147</t>
   </si>
   <si>
     <t>Grouped product</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 147</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 148</t>
   </si>
   <si>
     <t>External/Affiliate product</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 148</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 149</t>
   </si>
   <si>
     <t>Variable product</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 149</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 150</t>
   </si>
   <si>
     <t>Virtual product</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 150</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 151</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 179</t>
   </si>
   <si>
     <t>Downloadable product</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 151</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 152</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 190</t>
   </si>
   <si>
     <t>Price</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 184</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 210</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 61</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 216</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Overview/Overview.js: 12</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 221</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/Properties.js: 152</t>
+  </si>
+  <si>
+    <t>Variations</t>
+  </si>
+  <si>
+    <t>Downloadable</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 226</t>
+  </si>
+  <si>
+    <t>Warehouse</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 232</t>
+  </si>
+  <si>
+    <t>Shipments</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 237</t>
+  </si>
+  <si>
+    <t>Connected products</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 243</t>
+  </si>
+  <si>
+    <t>Specifications</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 248</t>
+  </si>
+  <si>
+    <t>Question and Answer</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 253</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 258</t>
+  </si>
+  <si>
+    <t>Purchase note</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Advanced/Advanced.js: 18</t>
+  </si>
+  <si>
+    <t>Enable reviews</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Advanced/Advanced.js: 29</t>
+  </si>
+  <si>
+    <t>(New Option)</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Connectedproducts/Connectedproducts.js: 71</t>
+  </si>
+  <si>
+    <t>Up-Selling</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Connectedproducts/Connectedproducts.js: 106</t>
+  </si>
+  <si>
+    <t>Cross-Selling</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Connectedproducts/Connectedproducts.js: 128</t>
+  </si>
+  <si>
+    <t>Downloadable files</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Downloadable/Downloadable.js: 18</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Downloadable/Downloadable.js: 20</t>
+  </si>
+  <si>
+    <t>Download limit</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Downloadable/Downloadable.js: 33</t>
+  </si>
+  <si>
+    <t>Leave blank for unlimited re-downloads.</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Downloadable/Downloadable.js: 34</t>
+  </si>
+  <si>
+    <t>Download expiry</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Downloadable/Downloadable.js: 45</t>
+  </si>
+  <si>
+    <t>Enter the number of days before a download link expires, or leave blank.</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Downloadable/Downloadable.js: 46</t>
+  </si>
+  <si>
+    <t>Product URL</t>
   </si>
   <si>
     <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 46</t>
   </si>
   <si>
-    <t>Overview</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 190</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Overview/Overview.js: 12</t>
-  </si>
-  <si>
-    <t>Properties</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 195</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/Properties.js: 152</t>
-  </si>
-  <si>
-    <t>Variations</t>
-  </si>
-  <si>
-    <t>Downloadable</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 200</t>
-  </si>
-  <si>
-    <t>Warehouse</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 206</t>
-  </si>
-  <si>
-    <t>Shipments</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 211</t>
-  </si>
-  <si>
-    <t>Connected products</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 217</t>
-  </si>
-  <si>
-    <t>Specifications</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 222</t>
-  </si>
-  <si>
-    <t>Question and Answer</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 227</t>
-  </si>
-  <si>
-    <t>Advanced</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 232</t>
-  </si>
-  <si>
-    <t>Purchase note</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Advanced/Advanced.js: 18</t>
-  </si>
-  <si>
-    <t>Enable reviews</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Advanced/Advanced.js: 29</t>
-  </si>
-  <si>
-    <t>(New Option)</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Connectedproducts/Connectedproducts.js: 71</t>
-  </si>
-  <si>
-    <t>Up-Selling</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Connectedproducts/Connectedproducts.js: 106</t>
-  </si>
-  <si>
-    <t>Cross-Selling</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Connectedproducts/Connectedproducts.js: 128</t>
-  </si>
-  <si>
-    <t>Downloadable files</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Downloadable/Downloadable.js: 18</t>
-  </si>
-  <si>
-    <t>Leave blank for unlimited re-downloads.</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Downloadable/Downloadable.js: 19</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Downloadable/Downloadable.js: 35</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Downloadable/Downloadable.js: 21</t>
-  </si>
-  <si>
-    <t>Download limit</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Downloadable/Downloadable.js: 34</t>
-  </si>
-  <si>
-    <t>Download expiry</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Downloadable/Downloadable.js: 46</t>
-  </si>
-  <si>
-    <t>Enter the number of days before a download link expires, or leave blank.</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Downloadable/Downloadable.js: 47</t>
-  </si>
-  <si>
     <t>Compare at Price</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 63</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 78</t>
   </si>
   <si>
     <t>Cost per item</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 80</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 95</t>
   </si>
   <si>
     <t>Customers won’t see this</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 81</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 96</t>
   </si>
   <si>
     <t>Margin</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 98</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 113</t>
   </si>
   <si>
     <t>Profit</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 108</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 123</t>
   </si>
   <si>
     <t>Charge tax on this product</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 149</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 164</t>
+  </si>
+  <si>
+    <t>Tax class</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 180</t>
   </si>
   <si>
     <t>Custom product attribute</t>
@@ -369,52 +384,64 @@
     <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 20</t>
   </si>
   <si>
+    <t>Manage stock?</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 34</t>
+  </si>
+  <si>
+    <t>Enable stock management at product level</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 35</t>
+  </si>
+  <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 31</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 49</t>
   </si>
   <si>
     <t>Stock quantity. If this is a variable product this value will be used to control stock for all variations, unless you define stock at variation level.</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 32</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 50</t>
   </si>
   <si>
     <t>Pre-order allowed?</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 43</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 61</t>
   </si>
   <si>
     <t>Do not allow</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 45</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 63</t>
   </si>
   <si>
     <t>Allowed, but must notify the customer</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 46</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 64</t>
   </si>
   <si>
     <t>If managing inventory, this will control whether to allow pre-orders for products that are out of stock. If enabled, the number of items in stock can be set to a value below zero.</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 49</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 67</t>
   </si>
   <si>
     <t>Out of stock threshold</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 60</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 78</t>
   </si>
   <si>
     <t>When product stock reaches this amount you will be notified by email. It is possible to define different values for each variation individually. The shop default value can be set in Settings &gt; Products &gt; Inventory.</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 62</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 80</t>
   </si>
   <si>
     <t>English(en_US)</t>
@@ -837,10 +864,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A69" sqref="A69:B69"/>
+      <selection activeCell="A74" sqref="A74:B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -972,427 +999,465 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2"/>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
         <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2"/>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
         <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2"/>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
         <v>41</v>
       </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" t="s">
         <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2"/>
-      <c r="B38" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" t="s">
         <v>71</v>
-      </c>
-      <c r="B39" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" t="s">
         <v>73</v>
-      </c>
-      <c r="B40" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s">
         <v>75</v>
-      </c>
-      <c r="B41" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
         <v>77</v>
-      </c>
-      <c r="B42" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" t="s">
         <v>79</v>
-      </c>
-      <c r="B43" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" t="s">
         <v>81</v>
-      </c>
-      <c r="B44" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" t="s">
         <v>83</v>
-      </c>
-      <c r="B45" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" t="s">
         <v>85</v>
-      </c>
-      <c r="B46" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" t="s">
         <v>87</v>
-      </c>
-      <c r="B47" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" t="s">
         <v>89</v>
-      </c>
-      <c r="B48" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" t="s">
         <v>91</v>
-      </c>
-      <c r="B49" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" t="s">
         <v>93</v>
-      </c>
-      <c r="B50" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" t="s">
         <v>95</v>
-      </c>
-      <c r="B51" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" t="s">
         <v>97</v>
-      </c>
-      <c r="B52" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" t="s">
         <v>99</v>
-      </c>
-      <c r="B53" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" t="s">
         <v>101</v>
-      </c>
-      <c r="B54" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" t="s">
         <v>103</v>
-      </c>
-      <c r="B55" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" t="s">
         <v>105</v>
-      </c>
-      <c r="B56" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" t="s">
         <v>107</v>
-      </c>
-      <c r="B57" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" t="s">
         <v>109</v>
-      </c>
-      <c r="B58" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" t="s">
         <v>111</v>
-      </c>
-      <c r="B59" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" t="s">
         <v>113</v>
-      </c>
-      <c r="B60" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" t="s">
         <v>115</v>
-      </c>
-      <c r="B61" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" t="s">
         <v>117</v>
-      </c>
-      <c r="B62" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" t="s">
         <v>119</v>
-      </c>
-      <c r="B63" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" t="s">
         <v>121</v>
-      </c>
-      <c r="B64" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65" t="s">
         <v>123</v>
-      </c>
-      <c r="B65" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" t="s">
         <v>125</v>
-      </c>
-      <c r="B66" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" t="s">
         <v>127</v>
-      </c>
-      <c r="B67" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B68" t="s">
         <v>129</v>
-      </c>
-      <c r="B68" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" t="s">
         <v>131</v>
       </c>
-      <c r="B69" t="s">
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2" t="s">
         <v>132</v>
+      </c>
+      <c r="B70" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B71" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B72" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B73" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B74" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1411,13 +1476,11 @@
     <mergeCell ref="A12:A12"/>
     <mergeCell ref="A13:A13"/>
     <mergeCell ref="A14:A14"/>
-    <mergeCell ref="A15:A15"/>
-    <mergeCell ref="A16:A16"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A23"/>
-    <mergeCell ref="A24:A24"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A25"/>
     <mergeCell ref="A26:A26"/>
     <mergeCell ref="A27:A27"/>
@@ -1430,7 +1493,8 @@
     <mergeCell ref="A34:A34"/>
     <mergeCell ref="A35:A35"/>
     <mergeCell ref="A36:A36"/>
-    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A37:A37"/>
+    <mergeCell ref="A38:A38"/>
     <mergeCell ref="A39:A39"/>
     <mergeCell ref="A40:A40"/>
     <mergeCell ref="A41:A41"/>
@@ -1462,6 +1526,11 @@
     <mergeCell ref="A67:A67"/>
     <mergeCell ref="A68:A68"/>
     <mergeCell ref="A69:A69"/>
+    <mergeCell ref="A70:A70"/>
+    <mergeCell ref="A71:A71"/>
+    <mergeCell ref="A72:A72"/>
+    <mergeCell ref="A73:A73"/>
+    <mergeCell ref="A74:A74"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1482,13 +1551,13 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:N65"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1514,43 +1583,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1807,7 +1876,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1825,7 +1894,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1843,7 +1912,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1861,7 +1930,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1879,7 +1948,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1897,7 +1966,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1915,7 +1984,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1933,7 +2002,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1951,7 +2020,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1969,7 +2038,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1987,7 +2056,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -2005,7 +2074,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -2023,7 +2092,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -2041,7 +2110,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -2059,7 +2128,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2077,7 +2146,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2095,7 +2164,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2113,7 +2182,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2131,7 +2200,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2149,7 +2218,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2167,7 +2236,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2185,7 +2254,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2203,7 +2272,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2221,7 +2290,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2239,7 +2308,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2257,7 +2326,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2275,7 +2344,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -2293,7 +2362,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -2311,7 +2380,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -2329,7 +2398,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -2347,7 +2416,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -2365,7 +2434,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -2383,7 +2452,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -2401,7 +2470,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2419,7 +2488,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2437,7 +2506,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -2455,7 +2524,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2473,7 +2542,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -2491,7 +2560,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2509,7 +2578,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2527,7 +2596,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2545,7 +2614,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -2563,7 +2632,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -2581,7 +2650,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -2599,7 +2668,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2617,7 +2686,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2635,7 +2704,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2653,7 +2722,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2671,7 +2740,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -2689,7 +2758,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -2704,6 +2773,78 @@
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/plugins/Vn4ThemeBuilder/i18n/trans.xlsx
+++ b/src/plugins/Vn4ThemeBuilder/i18n/trans.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="364">
   <si>
     <t>Key</t>
   </si>
@@ -24,18 +24,297 @@
     <t>Detail</t>
   </si>
   <si>
-    <t>Insights</t>
+    <t>In stock</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\CreateData\Tabs\EcomProd/Inventory.js: 15</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\ShowData\Tabs\EcomProd/Inventory.js: 15</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 539</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 96</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\EcomOrder/ChooseProduct.js: 64</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\EcomProd\Views/Quantity.js: 6</t>
+  </si>
+  <si>
+    <t>Out of stock</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\CreateData\Tabs\EcomProd/Inventory.js: 16</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\ShowData\Tabs\EcomProd/Inventory.js: 16</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 540</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 97</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\EcomOrder/ChooseProduct.js: 65</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\EcomProd\Views/Quantity.js: 7</t>
+  </si>
+  <si>
+    <t>On backorder</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\CreateData\Tabs\EcomProd/Inventory.js: 17</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\ShowData\Tabs\EcomProd/Inventory.js: 17</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 541</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 98</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\EcomOrder/ChooseProduct.js: 66</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\EcomProd\Views/Quantity.js: 8</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\CreateData\Tabs\EcomProd/Inventory.js: 88</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\ShowData\Tabs\EcomProd/Inventory.js: 404</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\CreateData\Tabs\EcomProd/Inventory.js: 91</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\ShowData\Tabs\EcomProd/Inventory.js: 407</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 18</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\EcomOrder/ChooseProduct.js: 615</t>
+  </si>
+  <si>
+    <t>When sold out</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\CreateData\Tabs\EcomProd/Inventory.js: 94</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\ShowData\Tabs\EcomProd/Inventory.js: 410</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\CreateData\Tabs\EcomProd/Inventory.js: 97</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\ShowData\Tabs\EcomProd/Inventory.js: 413</t>
+  </si>
+  <si>
+    <t>Edit quantity available</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\CreateData\Tabs\EcomProd/Inventory.js: 100</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\ShowData\Tabs\EcomProd/Inventory.js: 416</t>
+  </si>
+  <si>
+    <t>Stop selling</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\CreateData\Tabs\EcomProd/Inventory.js: 127</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\ShowData\Tabs\EcomProd/Inventory.js: 83</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\ShowData\Tabs\EcomProd/Inventory.js: 190</t>
+  </si>
+  <si>
+    <t>Continue selling</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\CreateData\Tabs\EcomProd/Inventory.js: 128</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\ShowData\Tabs\EcomProd/Inventory.js: 84</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\ShowData\Tabs\EcomProd/Inventory.js: 191</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\CreateData\Tabs\EcomProd/Inventory.js: 169</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\ShowData\Tabs\EcomProd/Inventory.js: 125</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\ShowData\Tabs\EcomProd/Inventory.js: 232</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\CreateData\Tabs\EcomProd/Inventory.js: 178</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\ShowData\Tabs\EcomProd/Inventory.js: 134</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\ShowData\Tabs\EcomProd/Inventory.js: 241</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\CreateData\Tabs\EcomProd/Inventory.js: 213</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\ShowData\Tabs\EcomProd/Inventory.js: 157</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\ShowData\Tabs\EcomProd/Inventory.js: 276</t>
+  </si>
+  <si>
+    <t>Change time</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\CreateData\Tabs\EcomProd\components\Report/ReportsSales.js: 16</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\ShowData\Tabs\EcomOrder\components\Report/ReportsSales.js: 16</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\CreateData\Tabs\EcomProd\components\Report/Revenue.js: 27</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\ShowData\Tabs\EcomOrder\components\Report/Revenue.js: 27</t>
+  </si>
+  <si>
+    <t>You will only receive reports related to the current product including revenue, cost, profit, tax, evaluation,...</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\CreateData\Tabs\EcomProd\components\Report/Revenue.js: 28</t>
+  </si>
+  <si>
+    <t>All reports on this page refer only to this product</t>
+  </si>
+  <si>
+    <t>{{quantity}} sold products</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\CreateData\Tabs\EcomProd\components\Report/Revenue.js: 36</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\ShowData\Tabs\EcomOrder\components\Report/Revenue.js: 35</t>
+  </si>
+  <si>
+    <t>based on {{total}} completed orders</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\CreateData\Tabs\EcomProd\components\Report/Revenue.js: 42</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\ShowData\Tabs\EcomOrder\components\Report/Revenue.js: 41</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\CreateData\Tabs\EcomProd\components\Report/Revenue.js: 49</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\ShowData\Tabs\EcomOrder\components\Report/Revenue.js: 48</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\CreateData\Tabs\EcomProd\components\Report/Revenue.js: 55</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\ShowData\Tabs\EcomOrder\components\Report/Revenue.js: 54</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 116</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Pricing.js: 108</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\CreateData\Tabs\EcomProd\components\Report/Revenue.js: 61</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\ShowData\Tabs\EcomOrder\components\Report/Revenue.js: 60</t>
+  </si>
+  <si>
+    <t>based on {{total}} approved reviews</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\CreateData\Tabs\EcomProd\components\Report/Reviews.js: 18</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\ShowData\Tabs\EcomOrder\components\Report/Reviews.js: 18</t>
+  </si>
+  <si>
+    <t>Report</t>
   </si>
   <si>
     <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\CreateData\Tabs\EcomProd/index.js: 14</t>
   </si>
   <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\ShowData\Tabs\EcomOrder/index.js: 13</t>
+  </si>
+  <si>
     <t>Inventory</t>
   </si>
   <si>
     <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\CreateData\Tabs\EcomProd/index.js: 19</t>
   </si>
   <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\ShowData\Tabs\EcomProd/index.js: 8</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType/Action.js: 15</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 508</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Inventory.js: 13</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\EcomOrder/ChooseProduct.js: 617</t>
+  </si>
+  <si>
     <t>Reviews</t>
   </si>
   <si>
@@ -48,6 +327,24 @@
     <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\CreateData\Tabs\EcomProd/index.js: 29</t>
   </si>
   <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\ShowData\Tabs\EcomOrder\components\Report/Revenue.js: 66</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\ShowData\Tabs\EcomOrder/index.js: 8</t>
+  </si>
+  <si>
+    <t>Product per page:</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\AddOn\ShowData\Tabs\EcomProd/Inventory.js: 501</t>
+  </si>
+  <si>
     <t>Product count</t>
   </si>
   <si>
@@ -69,253 +366,643 @@
     <t>Product Data</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 139</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 147</t>
   </si>
   <si>
     <t>Product type</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 145</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 153</t>
   </si>
   <si>
     <t>Simple Product</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 147</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 155</t>
   </si>
   <si>
     <t>Grouped product</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 148</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 156</t>
   </si>
   <si>
     <t>External/Affiliate product</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 149</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 157</t>
   </si>
   <si>
     <t>Variable product</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 150</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 158</t>
   </si>
   <si>
     <t>Virtual product</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 151</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 179</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 159</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 181</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 209</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Shipping.js: 17</t>
   </si>
   <si>
     <t>Downloadable product</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 152</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 190</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 160</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 191</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 220</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Downloadable.js: 14</t>
+  </si>
+  <si>
+    <t>Pricing</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 240</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 450</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Pricing.js: 24</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 247</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Overview/Overview.js: 12</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 436</t>
+  </si>
+  <si>
+    <t>Downloadable</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 252</t>
+  </si>
+  <si>
+    <t>Warehouse</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 258</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 264</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/Properties.js: 155</t>
+  </si>
+  <si>
+    <t>Variations</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/Variations.js: 270</t>
+  </si>
+  <si>
+    <t>Shipments</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 269</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 590</t>
+  </si>
+  <si>
+    <t>Connected products</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 279</t>
+  </si>
+  <si>
+    <t>Specifications</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 284</t>
+  </si>
+  <si>
+    <t>Question and Answer</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 289</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 294</t>
+  </si>
+  <si>
+    <t>Purchase note</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Advanced/Advanced.js: 18</t>
+  </si>
+  <si>
+    <t>Enable reviews</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Advanced/Advanced.js: 29</t>
+  </si>
+  <si>
+    <t>(New Option)</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Connectedproducts/Connectedproducts.js: 71</t>
+  </si>
+  <si>
+    <t>Up-Selling</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Connectedproducts/Connectedproducts.js: 106</t>
+  </si>
+  <si>
+    <t>Cross-Selling</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Connectedproducts/Connectedproducts.js: 128</t>
+  </si>
+  <si>
+    <t>Downloadable files</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Downloadable/Downloadable.js: 18</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Downloadable.js: 27</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Downloadable/Downloadable.js: 20</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Downloadable.js: 29</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\EcomOrder/ChooseProduct.js: 614</t>
+  </si>
+  <si>
+    <t>Download limit</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Downloadable/Downloadable.js: 33</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Downloadable.js: 40</t>
+  </si>
+  <si>
+    <t>Leave blank for unlimited re-downloads.</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Downloadable/Downloadable.js: 34</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Downloadable.js: 41</t>
+  </si>
+  <si>
+    <t>Download expiry</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Downloadable/Downloadable.js: 45</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Downloadable.js: 50</t>
+  </si>
+  <si>
+    <t>Enter the number of days before a download link expires, or leave blank.</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Downloadable/Downloadable.js: 46</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Downloadable.js: 51</t>
+  </si>
+  <si>
+    <t>Product URL</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 23</t>
   </si>
   <si>
     <t>Price</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 210</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 38</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 453</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Pricing.js: 30</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\EcomOrder/ChooseProduct.js: 616</t>
+  </si>
+  <si>
+    <t>Compare at price</t>
   </si>
   <si>
     <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 61</t>
   </si>
   <si>
-    <t>Overview</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 216</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Overview/Overview.js: 12</t>
-  </si>
-  <si>
-    <t>Properties</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 221</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/Properties.js: 152</t>
-  </si>
-  <si>
-    <t>Variations</t>
-  </si>
-  <si>
-    <t>Downloadable</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 226</t>
-  </si>
-  <si>
-    <t>Warehouse</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 232</t>
-  </si>
-  <si>
-    <t>Shipments</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 237</t>
-  </si>
-  <si>
-    <t>Connected products</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 243</t>
-  </si>
-  <si>
-    <t>Specifications</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 248</t>
-  </si>
-  <si>
-    <t>Question and Answer</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 253</t>
-  </si>
-  <si>
-    <t>Advanced</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData/CreateData.js: 258</t>
-  </si>
-  <si>
-    <t>Purchase note</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Advanced/Advanced.js: 18</t>
-  </si>
-  <si>
-    <t>Enable reviews</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Advanced/Advanced.js: 29</t>
-  </si>
-  <si>
-    <t>(New Option)</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Connectedproducts/Connectedproducts.js: 71</t>
-  </si>
-  <si>
-    <t>Up-Selling</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Connectedproducts/Connectedproducts.js: 106</t>
-  </si>
-  <si>
-    <t>Cross-Selling</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Connectedproducts/Connectedproducts.js: 128</t>
-  </si>
-  <si>
-    <t>Downloadable files</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Downloadable/Downloadable.js: 18</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Downloadable/Downloadable.js: 20</t>
-  </si>
-  <si>
-    <t>Download limit</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Downloadable/Downloadable.js: 33</t>
-  </si>
-  <si>
-    <t>Leave blank for unlimited re-downloads.</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Downloadable/Downloadable.js: 34</t>
-  </si>
-  <si>
-    <t>Download expiry</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Downloadable/Downloadable.js: 45</t>
-  </si>
-  <si>
-    <t>Enter the number of days before a download link expires, or leave blank.</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Downloadable/Downloadable.js: 46</t>
-  </si>
-  <si>
-    <t>Product URL</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 46</t>
-  </si>
-  <si>
-    <t>Compare at Price</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 78</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 463</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Pricing.js: 53</t>
   </si>
   <si>
     <t>Cost per item</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 95</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 84</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 473</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Pricing.js: 76</t>
   </si>
   <si>
     <t>Customers won’t see this</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 96</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 85</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Pricing.js: 77</t>
   </si>
   <si>
     <t>Margin</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 113</t>
-  </si>
-  <si>
-    <t>Profit</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 123</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 106</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Pricing.js: 98</t>
+  </si>
+  <si>
+    <t>Percent discount</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 126</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Pricing.js: 118</t>
   </si>
   <si>
     <t>Charge tax on this product</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 164</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 167</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 488</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Pricing.js: 134</t>
   </si>
   <si>
     <t>Tax class</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 180</t>
-  </si>
-  <si>
-    <t>Custom product attribute</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/Properties.js: 157</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 192</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 495</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Pricing.js: 158</t>
+  </si>
+  <si>
+    <t>Price after tax</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\General/General.js: 219</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Pricing.js: 185</t>
+  </si>
+  <si>
+    <t>Edit Variation</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 322</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/Variations.js: 409</t>
+  </si>
+  <si>
+    <t>Currently editing these fields</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 329</t>
+  </si>
+  <si>
+    <t>Add field</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 347</t>
+  </si>
+  <si>
+    <t>Variant</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 360</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\EcomOrder/ChooseProduct.js: 612</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 439</t>
+  </si>
+  <si>
+    <t>Charge tax</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 483</t>
+  </si>
+  <si>
+    <t>Manage stock?</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 520</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Inventory.js: 30</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 34</t>
+  </si>
+  <si>
+    <t>Enable stock management at this variation</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 525</t>
+  </si>
+  <si>
+    <t>Stock status</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 532</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Inventory.js: 89</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 93</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 548</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Inventory.js: 45</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 49</t>
+  </si>
+  <si>
+    <t>Pre-order allowed?</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 559</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Inventory.js: 57</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 61</t>
+  </si>
+  <si>
+    <t>Do not allow</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 565</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 580</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Inventory.js: 59</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 63</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\EcomOrder/ChooseProduct.js: 70</t>
+  </si>
+  <si>
+    <t>Allowed, but must notify the customer</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 566</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 581</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Inventory.js: 60</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 64</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\EcomOrder/ChooseProduct.js: 71</t>
+  </si>
+  <si>
+    <t>Out of stock threshold</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 574</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Inventory.js: 74</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 78</t>
+  </si>
+  <si>
+    <t>Allow</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 582</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Inventory.js: 61</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 65</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\EcomOrder/ChooseProduct.js: 72</t>
+  </si>
+  <si>
+    <t>Weight (kg)</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 593</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Shipping.js: 32</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Shipments/Shipments.js: 18</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 602</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Shipping.js: 47</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Shipments/Shipments.js: 33</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 611</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Shipping.js: 60</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Shipments/Shipments.js: 46</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/BulkEditor.js: 620</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Shipping.js: 73</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Shipments/Shipments.js: 59</t>
+  </si>
+  <si>
+    <t>Add product attribute</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/Properties.js: 160</t>
   </si>
   <si>
     <t>No matching variants found for properties</t>
   </si>
   <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/Properties.js: 254</t>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/Properties.js: 272</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/Variations.js: 272</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/Variations.js: 293</t>
+  </si>
+  <si>
+    <t>Open bulk editor</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/Variations.js: 295</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/VariationsForm.js: 135</t>
+  </si>
+  <si>
+    <t>This variant has been removed and will not appear on the storefront</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/Variations.js: 393</t>
+  </si>
+  <si>
+    <t>Enable stock management at variation level</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Inventory.js: 31</t>
+  </si>
+  <si>
+    <t>Stock quantity. If this is a variable product this value will be used to control stock for all variations, unless you define stock at variation level.</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Inventory.js: 46</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 50</t>
+  </si>
+  <si>
+    <t>If managing inventory, this will control whether to allow pre-orders for products that are out of stock. If enabled, the number of items in stock can be set to a value below zero.</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Inventory.js: 63</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 67</t>
+  </si>
+  <si>
+    <t>When product stock reaches this amount you will be notified by email. It is possible to define different values for each variation individually. The shop default value can be set in Settings &gt; Products &gt; Inventory.</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Inventory.js: 76</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 80</t>
+  </si>
+  <si>
+    <t>Dimensions (cm)</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties\VariationsForm/Shipping.js: 41</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Shipments/Shipments.js: 27</t>
+  </si>
+  <si>
+    <t>Variants</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Properties/VariationsForm.js: 134</t>
   </si>
   <si>
     <t>Question And Answer</t>
@@ -336,112 +1023,52 @@
     <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\QuestionAndAnswer/QuestionAndAnswer.js: 16</t>
   </si>
   <si>
-    <t>Weight (kg)</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Shipments/Shipments.js: 18</t>
-  </si>
-  <si>
-    <t>Dimensions (cm)</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Shipments/Shipments.js: 27</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Shipments/Shipments.js: 34</t>
-  </si>
-  <si>
-    <t>Width</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Shipments/Shipments.js: 47</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Shipments/Shipments.js: 60</t>
-  </si>
-  <si>
     <t>Please update the Specifications Sets before editing this section.</t>
   </si>
   <si>
     <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Specifications/Specifications.js: 63</t>
   </si>
   <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 18</t>
-  </si>
-  <si>
     <t>In the field of inventory management, a stock keeping unit is a distinct type of item for sale, such as a product or service, and all attributes associated with the item type that distinguish it from other item types.</t>
   </si>
   <si>
     <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 20</t>
   </si>
   <si>
-    <t>Manage stock?</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 34</t>
-  </si>
-  <si>
     <t>Enable stock management at product level</t>
   </si>
   <si>
     <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 35</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 49</t>
-  </si>
-  <si>
-    <t>Stock quantity. If this is a variable product this value will be used to control stock for all variations, unless you define stock at variation level.</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 50</t>
-  </si>
-  <si>
-    <t>Pre-order allowed?</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 61</t>
-  </si>
-  <si>
-    <t>Do not allow</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 63</t>
-  </si>
-  <si>
-    <t>Allowed, but must notify the customer</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 64</t>
-  </si>
-  <si>
-    <t>If managing inventory, this will control whether to allow pre-orders for products that are out of stock. If enabled, the number of items in stock can be set to a value below zero.</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 67</t>
-  </si>
-  <si>
-    <t>Out of stock threshold</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 78</t>
-  </si>
-  <si>
-    <t>When product stock reaches this amount you will be notified by email. It is possible to define different values for each variation individually. The shop default value can be set in Settings &gt; Products &gt; Inventory.</t>
-  </si>
-  <si>
-    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\CreateData\components\Warehouse/Warehouse.js: 80</t>
+    <t>Add variable</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\EcomOrder/ChooseProduct.js: 341</t>
+  </si>
+  <si>
+    <t>Choose a variant to add to your order</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\EcomOrder/ChooseProduct.js: 606</t>
+  </si>
+  <si>
+    <t>{{quantity}} in stock for {{number_of_variation}} variants</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\EcomProd\Views/Quantity.js: 16</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\EcomProd\Views/Quantity.js: 28</t>
+  </si>
+  <si>
+    <t>{{quantity}} in stock</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\EcomProd\Views/Quantity.js: 22</t>
+  </si>
+  <si>
+    <t>D:\xampp\htdocs\Vn4React\src\plugins\Vn4Ecommerce\PostType\EcomProd\Views/Quantity.js: 40</t>
   </si>
   <si>
     <t>English(en_US)</t>
@@ -864,16 +1491,16 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C238"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A74" sqref="A74:B74"/>
+      <selection activeCell="A237" sqref="A237:B238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="60" customWidth="true" style="0"/>
-    <col min="2" max="2" width="147" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="149" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="30" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -895,642 +1522,1770 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2"/>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2"/>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2"/>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2"/>
+      <c r="B13" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2"/>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A17" s="2"/>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2"/>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="A21" s="2"/>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A23" s="2"/>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2"/>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="A25" s="2"/>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A27" s="2"/>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="A29" s="2"/>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="A31" s="2"/>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A33" s="2"/>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="A34" s="2"/>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="A36" s="2"/>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="A37" s="2"/>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="A39" s="2"/>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="A40" s="2"/>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="A42" s="2"/>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="A43" s="2"/>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="A45" s="2"/>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="A46" s="2"/>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A48" s="2"/>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="A50" s="2"/>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="A54" s="2"/>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="A56" s="2"/>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="A58" s="2"/>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="A60" s="2"/>
       <c r="B60" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="A61" s="2"/>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="A62" s="2"/>
       <c r="B62" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="A64" s="2"/>
       <c r="B64" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="B65" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="A66" s="2"/>
       <c r="B66" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="A68" s="2"/>
       <c r="B68" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2"/>
+      <c r="B70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2"/>
+      <c r="B71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2"/>
+      <c r="B72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2"/>
+      <c r="B73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2"/>
+      <c r="B74" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B86" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B87" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B88" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B89" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2"/>
+      <c r="B90" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2"/>
+      <c r="B91" t="s">
         <v>130</v>
       </c>
-      <c r="B69" t="s">
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2"/>
+      <c r="B92" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="2" t="s">
+    <row r="93" spans="1:3">
+      <c r="A93" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B93" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="2" t="s">
+    <row r="94" spans="1:3">
+      <c r="A94" s="2"/>
+      <c r="B94" t="s">
         <v>134</v>
       </c>
-      <c r="B71" t="s">
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2"/>
+      <c r="B95" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="2" t="s">
+    <row r="96" spans="1:3">
+      <c r="A96" s="2"/>
+      <c r="B96" t="s">
         <v>136</v>
       </c>
-      <c r="B72" t="s">
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="2" t="s">
+      <c r="B97" t="s">
         <v>138</v>
       </c>
-      <c r="B73" t="s">
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2"/>
+      <c r="B98" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="2" t="s">
+    <row r="99" spans="1:3">
+      <c r="A99" s="2"/>
+      <c r="B99" t="s">
         <v>140</v>
       </c>
-      <c r="B74" t="s">
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2" t="s">
         <v>141</v>
+      </c>
+      <c r="B100" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2"/>
+      <c r="B101" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2"/>
+      <c r="B102" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B103" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B104" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B105" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2"/>
+      <c r="B106" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B107" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2"/>
+      <c r="B108" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B109" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2"/>
+      <c r="B110" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B111" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B112" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B113" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B114" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B115" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B116" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B117" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B118" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B119" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B120" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2"/>
+      <c r="B121" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B122" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2"/>
+      <c r="B123" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2"/>
+      <c r="B124" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B125" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2"/>
+      <c r="B126" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B127" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2"/>
+      <c r="B128" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B129" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2"/>
+      <c r="B130" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B131" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2"/>
+      <c r="B132" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B133" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B134" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2"/>
+      <c r="B135" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2"/>
+      <c r="B136" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2"/>
+      <c r="B137" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B138" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2"/>
+      <c r="B139" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2"/>
+      <c r="B140" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B141" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2"/>
+      <c r="B142" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2"/>
+      <c r="B143" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B144" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2"/>
+      <c r="B145" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B146" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2"/>
+      <c r="B147" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B148" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2"/>
+      <c r="B149" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B150" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2"/>
+      <c r="B151" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2"/>
+      <c r="B152" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B153" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2"/>
+      <c r="B154" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2"/>
+      <c r="B155" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B156" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2"/>
+      <c r="B157" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B158" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2"/>
+      <c r="B159" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B160" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B161" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B162" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2"/>
+      <c r="B163" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B164" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B165" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B166" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="2"/>
+      <c r="B167" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="2"/>
+      <c r="B168" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B169" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B170" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="2"/>
+      <c r="B171" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="2"/>
+      <c r="B172" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B173" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="2"/>
+      <c r="B174" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="2"/>
+      <c r="B175" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B176" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="2"/>
+      <c r="B177" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="2"/>
+      <c r="B178" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B179" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="2"/>
+      <c r="B180" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="2"/>
+      <c r="B181" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="2"/>
+      <c r="B182" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="2"/>
+      <c r="B183" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B184" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="2"/>
+      <c r="B185" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="2"/>
+      <c r="B186" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="2"/>
+      <c r="B187" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="2"/>
+      <c r="B188" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B189" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="2"/>
+      <c r="B190" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="2"/>
+      <c r="B191" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B192" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="2"/>
+      <c r="B193" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="2"/>
+      <c r="B194" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="2"/>
+      <c r="B195" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B196" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="2"/>
+      <c r="B197" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="2"/>
+      <c r="B198" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B199" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="2"/>
+      <c r="B200" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="2"/>
+      <c r="B201" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B202" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="2"/>
+      <c r="B203" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="2"/>
+      <c r="B204" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B205" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="2"/>
+      <c r="B206" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="2"/>
+      <c r="B207" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B208" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B209" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B210" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B211" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B212" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B213" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B214" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="2"/>
+      <c r="B215" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B216" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B217" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B218" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="2"/>
+      <c r="B219" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B220" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="2"/>
+      <c r="B221" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B222" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="2"/>
+      <c r="B223" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B224" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="2"/>
+      <c r="B225" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B226" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B227" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B228" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B229" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B230" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B231" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B232" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B233" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B234" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B235" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="2"/>
+      <c r="B236" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B237" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="2"/>
+      <c r="B238" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A2:A2"/>
-    <mergeCell ref="A3:A3"/>
-    <mergeCell ref="A4:A4"/>
-    <mergeCell ref="A5:A5"/>
-    <mergeCell ref="A6:A6"/>
-    <mergeCell ref="A7:A7"/>
-    <mergeCell ref="A8:A8"/>
-    <mergeCell ref="A9:A9"/>
-    <mergeCell ref="A10:A10"/>
-    <mergeCell ref="A11:A11"/>
-    <mergeCell ref="A12:A12"/>
-    <mergeCell ref="A13:A13"/>
-    <mergeCell ref="A14:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A25"/>
-    <mergeCell ref="A26:A26"/>
-    <mergeCell ref="A27:A27"/>
-    <mergeCell ref="A28:A28"/>
-    <mergeCell ref="A29:A29"/>
-    <mergeCell ref="A30:A30"/>
-    <mergeCell ref="A31:A31"/>
-    <mergeCell ref="A32:A32"/>
-    <mergeCell ref="A33:A33"/>
-    <mergeCell ref="A34:A34"/>
-    <mergeCell ref="A35:A35"/>
-    <mergeCell ref="A36:A36"/>
-    <mergeCell ref="A37:A37"/>
-    <mergeCell ref="A38:A38"/>
-    <mergeCell ref="A39:A39"/>
-    <mergeCell ref="A40:A40"/>
-    <mergeCell ref="A41:A41"/>
-    <mergeCell ref="A42:A42"/>
-    <mergeCell ref="A43:A43"/>
-    <mergeCell ref="A44:A44"/>
-    <mergeCell ref="A45:A45"/>
-    <mergeCell ref="A46:A46"/>
-    <mergeCell ref="A47:A47"/>
-    <mergeCell ref="A48:A48"/>
-    <mergeCell ref="A49:A49"/>
-    <mergeCell ref="A50:A50"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
     <mergeCell ref="A51:A51"/>
     <mergeCell ref="A52:A52"/>
-    <mergeCell ref="A53:A53"/>
-    <mergeCell ref="A54:A54"/>
-    <mergeCell ref="A55:A55"/>
-    <mergeCell ref="A56:A56"/>
-    <mergeCell ref="A57:A57"/>
-    <mergeCell ref="A58:A58"/>
-    <mergeCell ref="A59:A59"/>
-    <mergeCell ref="A60:A60"/>
-    <mergeCell ref="A61:A61"/>
-    <mergeCell ref="A62:A62"/>
-    <mergeCell ref="A63:A63"/>
-    <mergeCell ref="A64:A64"/>
-    <mergeCell ref="A65:A65"/>
-    <mergeCell ref="A66:A66"/>
-    <mergeCell ref="A67:A67"/>
-    <mergeCell ref="A68:A68"/>
-    <mergeCell ref="A69:A69"/>
-    <mergeCell ref="A70:A70"/>
-    <mergeCell ref="A71:A71"/>
-    <mergeCell ref="A72:A72"/>
-    <mergeCell ref="A73:A73"/>
-    <mergeCell ref="A74:A74"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="A75:A75"/>
+    <mergeCell ref="A76:A76"/>
+    <mergeCell ref="A77:A77"/>
+    <mergeCell ref="A78:A78"/>
+    <mergeCell ref="A79:A79"/>
+    <mergeCell ref="A80:A80"/>
+    <mergeCell ref="A81:A81"/>
+    <mergeCell ref="A82:A82"/>
+    <mergeCell ref="A83:A83"/>
+    <mergeCell ref="A84:A84"/>
+    <mergeCell ref="A85:A85"/>
+    <mergeCell ref="A86:A86"/>
+    <mergeCell ref="A87:A87"/>
+    <mergeCell ref="A88:A88"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A103:A103"/>
+    <mergeCell ref="A104:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A111:A111"/>
+    <mergeCell ref="A112:A112"/>
+    <mergeCell ref="A113:A113"/>
+    <mergeCell ref="A114:A114"/>
+    <mergeCell ref="A115:A115"/>
+    <mergeCell ref="A116:A116"/>
+    <mergeCell ref="A117:A117"/>
+    <mergeCell ref="A118:A118"/>
+    <mergeCell ref="A119:A119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A133:A133"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="A160:A160"/>
+    <mergeCell ref="A161:A161"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="A164:A164"/>
+    <mergeCell ref="A165:A165"/>
+    <mergeCell ref="A166:A168"/>
+    <mergeCell ref="A169:A169"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="A179:A183"/>
+    <mergeCell ref="A184:A188"/>
+    <mergeCell ref="A189:A191"/>
+    <mergeCell ref="A192:A195"/>
+    <mergeCell ref="A196:A198"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="A202:A204"/>
+    <mergeCell ref="A205:A207"/>
+    <mergeCell ref="A208:A208"/>
+    <mergeCell ref="A209:A209"/>
+    <mergeCell ref="A210:A210"/>
+    <mergeCell ref="A211:A211"/>
+    <mergeCell ref="A212:A212"/>
+    <mergeCell ref="A213:A213"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="A216:A216"/>
+    <mergeCell ref="A217:A217"/>
+    <mergeCell ref="A218:A219"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="A224:A225"/>
+    <mergeCell ref="A226:A226"/>
+    <mergeCell ref="A227:A227"/>
+    <mergeCell ref="A228:A228"/>
+    <mergeCell ref="A229:A229"/>
+    <mergeCell ref="A230:A230"/>
+    <mergeCell ref="A231:A231"/>
+    <mergeCell ref="A232:A232"/>
+    <mergeCell ref="A233:A233"/>
+    <mergeCell ref="A234:A234"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="A237:A238"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1551,13 +3306,13 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N69"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:N69"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:N117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1583,43 +3338,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>142</v>
+        <v>351</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>143</v>
+        <v>352</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>144</v>
+        <v>353</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>145</v>
+        <v>354</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>146</v>
+        <v>355</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>147</v>
+        <v>356</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>148</v>
+        <v>357</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>149</v>
+        <v>358</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>150</v>
+        <v>359</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>151</v>
+        <v>360</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>152</v>
+        <v>361</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>153</v>
+        <v>362</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>154</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1642,7 +3397,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1660,7 +3415,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1678,7 +3433,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1696,7 +3451,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1714,7 +3469,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1732,7 +3487,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1750,7 +3505,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1768,7 +3523,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="4" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1786,7 +3541,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="4" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1804,7 +3559,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1822,7 +3577,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="4" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1840,7 +3595,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="4" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1858,7 +3613,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="4" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1876,7 +3631,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="4" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1894,7 +3649,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="4" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1912,7 +3667,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="4" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1930,7 +3685,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="4" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1948,7 +3703,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="4" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1966,7 +3721,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="4" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1984,7 +3739,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="4" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -2002,7 +3757,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="4" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -2020,7 +3775,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="4" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -2038,7 +3793,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="4" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -2056,7 +3811,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="4" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -2074,7 +3829,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="4" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -2092,7 +3847,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="4" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -2110,7 +3865,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="4" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -2128,7 +3883,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="4" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2146,7 +3901,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="4" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2164,7 +3919,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="4" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2182,7 +3937,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="4" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2200,7 +3955,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="4" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2218,7 +3973,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="4" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2236,7 +3991,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="4" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2254,7 +4009,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="4" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2272,7 +4027,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="4" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2290,7 +4045,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="4" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2308,7 +4063,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="4" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2326,7 +4081,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="4" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2344,7 +4099,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="4" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -2362,7 +4117,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="4" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -2380,7 +4135,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="4" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -2398,7 +4153,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="4" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -2416,7 +4171,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="4" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -2434,7 +4189,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="4" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -2452,7 +4207,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="4" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -2470,7 +4225,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="4" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2488,7 +4243,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="4" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2506,7 +4261,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="4" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -2524,7 +4279,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="4" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2542,7 +4297,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="4" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -2560,7 +4315,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="4" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2578,7 +4333,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="4" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2596,7 +4351,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="4" t="s">
-        <v>114</v>
+        <v>169</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2614,7 +4369,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="4" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -2632,7 +4387,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="4" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -2650,7 +4405,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="4" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -2668,7 +4423,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="4" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2686,7 +4441,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="4" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2704,7 +4459,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="4" t="s">
-        <v>126</v>
+        <v>185</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2722,7 +4477,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="4" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2740,7 +4495,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="4" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -2758,7 +4513,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="4" t="s">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -2776,7 +4531,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="4" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -2794,7 +4549,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="4" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -2812,7 +4567,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="4" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -2830,7 +4585,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="4" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -2845,6 +4600,870 @@
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
+      <c r="N101" s="5"/>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
+      <c r="N102" s="5"/>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5"/>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5"/>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="5"/>
+      <c r="N107" s="5"/>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+      <c r="M108" s="5"/>
+      <c r="N108" s="5"/>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="5"/>
+      <c r="N109" s="5"/>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5"/>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+      <c r="M111" s="5"/>
+      <c r="N111" s="5"/>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="5"/>
+      <c r="M112" s="5"/>
+      <c r="N112" s="5"/>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
+      <c r="N113" s="5"/>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
+      <c r="M114" s="5"/>
+      <c r="N114" s="5"/>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="5"/>
+      <c r="M115" s="5"/>
+      <c r="N115" s="5"/>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="5"/>
+      <c r="M116" s="5"/>
+      <c r="N116" s="5"/>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="5"/>
+      <c r="M117" s="5"/>
+      <c r="N117" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
